--- a/Documentatie/burndownchart.xlsx
+++ b/Documentatie/burndownchart.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRO\Jaar 1\Periode 3\Project\Project3\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRO\Jaar1\Periode3\Project\Project3\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6936"/>
   </bookViews>
   <sheets>
-    <sheet name="sprint 1" sheetId="1" r:id="rId1"/>
-    <sheet name="sprint 2" sheetId="2" r:id="rId2"/>
-    <sheet name="sprint 3" sheetId="3" r:id="rId3"/>
+    <sheet name="sprint 0" sheetId="4" r:id="rId1"/>
+    <sheet name="sprint 1" sheetId="1" r:id="rId2"/>
+    <sheet name="sprint 2" sheetId="2" r:id="rId3"/>
+    <sheet name="sprint 3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>total points</t>
   </si>
@@ -105,6 +106,526 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sprint 0'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ideal line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sprint 0'!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sprint 0'!$C$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D8A-451C-B85D-6BC42D0F83AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sprint 0'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>real line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sprint 0'!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>total points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>day1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>day2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sprint 0'!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D8A-451C-B85D-6BC42D0F83AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="470014000"/>
+        <c:axId val="470020232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="470014000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470020232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="470020232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470014000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -325,19 +846,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>34.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>25.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -473,22 +994,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,7 +1339,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -1521,7 +2042,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -2334,6 +2855,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -3822,7 +4383,544 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EA4CDE-B072-4E7F-AB0E-5B650603A2B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3863,7 +4961,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3904,7 +5002,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4242,18 +5340,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H3"/>
+  <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -4263,63 +5358,33 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>7.5</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>SUM(C2/5*3)</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>SUM(C2/5*2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>SUM(C2/5*1)</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
         <f>SUM(C2)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>0</v>
       </c>
     </row>
@@ -4334,10 +5399,13 @@
   <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H3"/>
+      <selection sqref="A1:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
@@ -4364,22 +5432,23 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f>SUM(C2/5*4)</f>
+        <v>34.4</v>
       </c>
       <c r="E2">
         <f>SUM(C2/5*3)</f>
-        <v>0</v>
+        <v>25.799999999999997</v>
       </c>
       <c r="F2">
         <f>SUM(C2/5*2)</f>
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="G2">
         <f>SUM(C2/5*1)</f>
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4391,22 +5460,22 @@
       </c>
       <c r="C3">
         <f>SUM(C2)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4499,4 +5568,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>SUM(C2/5*3)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>SUM(C2/5*2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>SUM(C2/5*1)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>SUM(C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>